--- a/saida_streamlit.xlsx
+++ b/saida_streamlit.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10 de 12</t>
+          <t>11 de 12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6 de 12</t>
+          <t>7 de 12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,21 +544,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45480</v>
+        <v>45484</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>72,20</t>
+          <t>37,16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4 de 4</t>
+          <t>5 de 6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MASTERFIX</t>
+          <t>ZERO3GAMES  *Z06227474</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,21 +569,21 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45484</v>
+        <v>45525</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>37,16</t>
+          <t>38,64</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4 de 6</t>
+          <t>4 de 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZERO3GAMES  *Z06227474</t>
+          <t>PARC=104 ALIEXPRESS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -594,21 +594,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45485</v>
+        <v>45525</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50,72</t>
+          <t>75,05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4 de 4</t>
+          <t>4 de 5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MERCADOLIVRE*3PRODUTOS</t>
+          <t>SHOPEE *M7HELP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -619,11 +619,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45518</v>
+        <v>45553</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>91,04</t>
+          <t>124,58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AMAZON MARKETPLACE</t>
+          <t>SHOPEE *HNPA8GFSL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -644,21 +644,21 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45525</v>
+        <v>45558</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>75,05</t>
+          <t>63,19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3 de 5</t>
+          <t>3 de 3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SHOPEE *M7HELP</t>
+          <t>SHOPEE *PORTALDOAO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -669,21 +669,21 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45525</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38,64</t>
+          <t>88,96</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3 de 4</t>
+          <t>3 de 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARC=104 ALIEXPRESS</t>
+          <t>AMAZON BR</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -694,11 +694,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45528</v>
+        <v>45559</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>95,31</t>
+          <t>151,99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MERCADOLIVRE*JCSBRASIL</t>
+          <t>PARC=103 ALIEXPRESS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -719,21 +719,21 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45531</v>
+        <v>45570</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>62,75</t>
+          <t>156,25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3 de 3</t>
+          <t>3 de 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SHOPEE *VERDEGARDEN</t>
+          <t>MERCADOLIVRE*SARO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -744,21 +744,21 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45553</v>
+        <v>45587</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>124,58</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2 de 3</t>
+          <t>2 de 6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SHOPEE *HNPA8GFSL</t>
+          <t>PARC=106 HTM*NANDERSON CA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -769,21 +769,21 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45553</v>
+        <v>45592</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81,96</t>
+          <t>416,17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t>2 de 3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SHOPEE *DDMQUINASFERRA</t>
+          <t>LATAM AIR</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -794,11 +794,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45558</v>
+        <v>45607</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>63,19</t>
+          <t>76,39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SHOPEE *PORTALDOAO</t>
+          <t>SHOPEE *SINGULARMVEIS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -819,11 +819,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45558</v>
+        <v>45607</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>88,96</t>
+          <t>239,83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AMAZON BR</t>
+          <t>SHOPEE *MOVELOVEMOVEIS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -844,21 +844,21 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45558</v>
+        <v>45610</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>60,36</t>
+          <t>-19,13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t xml:space="preserve"> de 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PARC=102 SHOPEE*SHOPEE CA</t>
+          <t>Credito em confiança/provisório</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -869,11 +869,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45559</v>
+        <v>45611</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-89,87</t>
+          <t>42,92</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PARC=103 ALIEXPRESS</t>
+          <t>IFOOD  *IFD*EMPREENDI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -894,21 +894,21 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45559</v>
+        <v>45611</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>151,99</t>
+          <t>21,20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PARC=103 ALIEXPRESS</t>
+          <t>UBER* PENDING</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -919,21 +919,21 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45567</v>
+        <v>45613</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>80,31</t>
+          <t>21,17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POSTO 2 LEOES</t>
+          <t>IFD*DIEGO VERDE DE OLIVEI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -944,21 +944,21 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45570</v>
+        <v>45613</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>156,25</t>
+          <t>80,00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2 de 4</t>
+          <t>1 de 5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MERCADOLIVRE*SARO</t>
+          <t>SAMIR SILVA SANTOS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -969,11 +969,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45582</v>
+        <v>45613</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4,10</t>
+          <t>12,24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCR MBA  FPAY</t>
+          <t>IFD*BRUNA DOMINGUES CUNNI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -994,11 +994,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45583</v>
+        <v>45614</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>198,69</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EC *SHELLBOX</t>
+          <t>UBER* TRIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1019,11 +1019,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45583</v>
+        <v>45614</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2,50</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ZEN COMIDAS FIT</t>
+          <t>UBER* TRIP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1044,11 +1044,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45584</v>
+        <v>45614</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25,50</t>
+          <t>132,65</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MERCADINHO DA PRAIA</t>
+          <t>MP*SHELLBOX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1069,11 +1069,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45586</v>
+        <v>45614</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-24,60</t>
+          <t>25,45</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SHOPEE *ABELLATECH</t>
+          <t>AMAZON BR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1094,11 +1094,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45615</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>50,59</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SHOPEE *ABELLATECH</t>
+          <t>AMAZON BR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1119,21 +1119,21 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45587</v>
+        <v>45616</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>53,25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1 de 6</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PARC=106 HTM*NANDERSON CA</t>
+          <t>SAMIR SILVA SANTOS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1144,11 +1144,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45587</v>
+        <v>45616</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-97,02</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PARC=106 HTM*NANDERSON CA</t>
+          <t>MP*GRSUCODECOCO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1169,11 +1169,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45589</v>
+        <v>45616</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-8,321,51</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pagamentos Validos Normais</t>
+          <t>UBER   *UBER   *TRIP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45590</v>
+        <v>45616</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>124,30</t>
+          <t>138,00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GAUTAMA</t>
+          <t>QUARTEL DOS LANCHES</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1219,11 +1219,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45592</v>
+        <v>45616</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>264,94</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MP*PAGTESOUROPAG</t>
+          <t>MP*GRSUCODECOCO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1244,11 +1244,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45592</v>
+        <v>45616</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>290,00</t>
+          <t>17,80</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LATAM AIR</t>
+          <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1269,21 +1269,21 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45592</v>
+        <v>45616</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>416,17</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LATAM AIR</t>
+          <t>FAZSALVADOR</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1294,11 +1294,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45595</v>
+        <v>45618</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>204,85</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EC *SHELLBOX</t>
+          <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1319,21 +1319,21 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45595</v>
+        <v>45620</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9,50</t>
+          <t>56,91</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MERCADINHO TROPIC</t>
+          <t>AMAZON BR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1344,21 +1344,21 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45598</v>
+        <v>45620</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>264,94</t>
+          <t>88,67</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MP*PAGTESOUROPAG</t>
+          <t>SHOPEE *LOJASG2MVEIS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1369,21 +1369,21 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45598</v>
+        <v>45620</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19,99</t>
+          <t>69,30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DM *CRUNCHYROLL LLC</t>
+          <t>PARC=102 SHOPEE*SHOPEE GO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1394,11 +1394,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45599</v>
+        <v>45620</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26,95</t>
+          <t>73,80</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CLARO  *71986562022</t>
+          <t>PG *LEROY MERLIN LEROY</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1419,21 +1419,21 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45600</v>
+        <v>45620</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>103,09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>UBER* PENDING</t>
+          <t>MP*ALIPAYBRASILMEIOSDEPAG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1444,11 +1444,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45601</v>
+        <v>45620</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>-73,80</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MERCADINHO DA PRAIA</t>
+          <t>PG *LEROY MERLIN LEROY</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1469,21 +1469,21 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45601</v>
+        <v>45620</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>69,99</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MP*MELIMAIS</t>
+          <t>PARC=102 SHOPEE*SHOPEE HE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1494,11 +1494,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45601</v>
+        <v>45621</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9,90</t>
+          <t>-7,498,40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EC          *MELIMAIS</t>
+          <t>Pagamentos Validos Normais</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1519,11 +1519,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45602</v>
+        <v>45621</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PG *TON SUCO DE COCO</t>
+          <t>MADEIREIRA CAM GRANDE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1544,21 +1544,21 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45602</v>
+        <v>45621</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>52,40</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FAZSALVADOR</t>
+          <t>PARC=104 ALIEXPRESS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45603</v>
+        <v>45621</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20,44</t>
+          <t>-209,60</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ATAKAREJO</t>
+          <t>PARC=104 ALIEXPRESS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1594,21 +1594,21 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45607</v>
+        <v>45621</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>239,83</t>
+          <t>-115,58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SHOPEE *MOVELOVEMOVEIS</t>
+          <t>MP*ALIPAYBRASILMEIOSDEPAG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1619,21 +1619,21 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45607</v>
+        <v>45622</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>187,76</t>
+          <t>93,47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MP*SHELLBOX</t>
+          <t>MP*ALIPAYBRASILMEIOSDEPAG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1644,21 +1644,21 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45607</v>
+        <v>45622</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>76,39</t>
+          <t>-42,98</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SHOPEE *SINGULARMVEIS</t>
+          <t>MP*ALIPAYBRASILMEIOSDEPAG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1669,11 +1669,11 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45608</v>
+        <v>45624</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>41,90</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1683,10 +1683,310 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DL*GOOGLE YOUTUB</t>
+          <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>190,48</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EC *SHELLBOX</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>61,63</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SHOPEE *ONIMIX</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>15,68</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AMAZON BR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1 de 2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AMAZON BR</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>266,62</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1 de 12</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BRASTEMP    *BRASTEMP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>49,90</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SHOPEE *LOJASFREESHOP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>19,99</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DM*CRUNCHYROLL L</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>47,35</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MERCADOLIVRE*2PRODUTOS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>26,07</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MERCADOLIVRE*2PRODUTOS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>74,98</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MERCADO*MERCADOLIVRE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>21,90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1 de 12</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VALESAUDE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>BERNARDO NOGUEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-15,68</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> de 1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Credito em confiança/provisório</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>BERNARDO NOGUEIRA</t>
         </is>
@@ -1703,7 +2003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,7 +2049,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5 de 8</t>
+          <t>6 de 8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1765,21 +2065,21 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45478</v>
+        <v>45495</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29,80</t>
+          <t>105,01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 de 4</t>
+          <t>5 de 10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LOJAS AMERICANAS 140</t>
+          <t>SAMIR SILVA SANTOS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1790,21 +2090,21 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45495</v>
+        <v>45500</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>105,01</t>
+          <t>42,39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4 de 10</t>
+          <t>5 de 10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAMIR SILVA SANTOS</t>
+          <t>ARTHUR LUNDGREN TECIDO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1815,874 +2115,24 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45500</v>
+        <v>45584</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42,39</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4 de 10</t>
+          <t>2 de 6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARTHUR LUNDGREN TECIDO</t>
+          <t>CENTRO ODONTOLOGICO VA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24,03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2 de 2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CESTA DO POVO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45584</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BOBS SHP CENTER L</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45584</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16,90</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PAPELECIA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45584</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>50,85</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1 de 6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CENTRO ODONTOLOGICO VA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>37,00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SANDYVITORIA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45585</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11,00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MP*CAIPIRINHADOLEU</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12,02</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>9,90</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TEMBICI</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20,06</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>UBER *TRIP HELP.UBER.COM</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>22,00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MP*ACARAJEDANELI</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9,90</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TEMBICI</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>9,90</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TEMBICI</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17,50</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TEMBICI</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>51,80</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>BURGER KING</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SALVADOR 201</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ESTACAO ACESSO NORTE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>MP*ANDREIAG</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45592</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>15,83</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CESTA DO POVO</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45598</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>158,80</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>OLIVA GOURMET</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45598</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>59,99</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>CLARO FLEX</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45599</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>29,93</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45599</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>14,94</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>12,23</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CESTA DO POVO</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17,00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SABEDORIA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>49,99</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>CLARO FLEX</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ESTACAO PERNANBUES</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>30,34</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>CESTA DO POVO</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45605</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>55,20</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>CESTA DO POVO</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>10,71</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>UBER* PENDING</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>15,00</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>REYDOCHURRASCO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>22,89</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>IFD*LARISSA MARIA MOTTA L</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>SAMIR SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>19,13</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>UBER *TRIP HELP.UBER.COM</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>SAMIR SILVA</t>
         </is>
@@ -2699,7 +2149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,11 +2186,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45496</v>
+        <v>45519</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>108,18</t>
+          <t>214,25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2750,7 +2200,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LEROY MERLIN</t>
+          <t>JSJ AUTO PECAS LTDA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2770,7 +2220,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3 de 4</t>
+          <t>4 de 4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2790,17 +2240,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>214,25</t>
+          <t>157,92</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3 de 4</t>
+          <t>4 de 4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JSJ AUTO PECAS LTDA</t>
+          <t>MACHADOOLIVEIRA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2811,21 +2261,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45519</v>
+        <v>45563</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>157,92</t>
+          <t>55,33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3 de 4</t>
+          <t>3 de 3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MACHADOOLIVEIRA</t>
+          <t>FERRAGENS 68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2836,21 +2286,21 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45552</v>
+        <v>45590</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67,27</t>
+          <t>108,98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t>2 de 3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SENDAS DISTRIBUIDORA</t>
+          <t>MERCADOLIVRE*DMCOMERCIOON</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2861,21 +2311,21 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45556</v>
+        <v>45593</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>133,01</t>
+          <t>91,30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t>2 de 3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DELEOESCOMERCIODE</t>
+          <t>FERREIRA COSTA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2886,21 +2336,21 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45563</v>
+        <v>45595</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55,33</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2 de 3</t>
+          <t>2 de 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FERRAGENS 68</t>
+          <t>FARMACIA DO TRABALHADO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2911,21 +2361,21 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45590</v>
+        <v>45606</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>58,20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2 de 3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MP*POINTDOACARAJ</t>
+          <t>TLT MATERIAIS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2936,21 +2386,21 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45590</v>
+        <v>45610</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>108,98</t>
+          <t>19,97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MERCADOLIVRE*DMCOMERCIOON</t>
+          <t>CENTRAL VARIEDADES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2961,11 +2411,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45591</v>
+        <v>45610</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32,80</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2975,7 +2425,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FERREIRA COSTA</t>
+          <t>MP*POINTDOACARAJ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2986,21 +2436,21 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45591</v>
+        <v>45611</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6,50</t>
+          <t>49,85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MERCADINHO DA PRAIA</t>
+          <t>M A ESTEVAM MATERIAIS DE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3011,11 +2461,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45591</v>
+        <v>45611</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>66,00</t>
+          <t>104,84</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3025,7 +2475,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AUTOKAR</t>
+          <t>MIXBAHIAAREMBEPE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3036,11 +2486,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45591</v>
+        <v>45612</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3050,7 +2500,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MP*THIAGOVENDAS</t>
+          <t>FONSECA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3061,11 +2511,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45591</v>
+        <v>45612</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>43,80</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3075,7 +2525,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MERCADINHO DA PRAIA</t>
+          <t>MERCADO NIDI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3086,21 +2536,21 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45593</v>
+        <v>45612</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>91,30</t>
+          <t>24,20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FERREIRA COSTA</t>
+          <t>M A ESTEVAM MATERIAIS DE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3111,11 +2561,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45594</v>
+        <v>45612</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15,79</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3125,7 +2575,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MERCADINHO MAX QU</t>
+          <t>PAYGO*M A ESTEVAM MATE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3136,21 +2586,21 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45595</v>
+        <v>45613</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>26,20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 de 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FARMACIA DO TRABALHADO</t>
+          <t>ASSAI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3161,11 +2611,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45596</v>
+        <v>45614</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20,28</t>
+          <t>23,86</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3175,7 +2625,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MATIZ CORES E TINTAS</t>
+          <t>FLAVIOSILVADOS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3186,11 +2636,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45596</v>
+        <v>45615</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>27,00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3200,7 +2650,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MERCADINHO MAX QU</t>
+          <t>MERCADINHO DA PRAIA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3211,11 +2661,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45596</v>
+        <v>45615</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15,50</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3225,7 +2675,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FLAVIOSILVADOS</t>
+          <t>R1 COMERCIO DE COMBUST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3236,11 +2686,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45597</v>
+        <v>45616</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22,61</t>
+          <t>32,72</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3250,7 +2700,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PANIFICADORA SAO PAULO</t>
+          <t>ZP*SANTANAAZ 632138</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3261,11 +2711,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45600</v>
+        <v>45617</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>30,24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3275,7 +2725,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SALES MAT DE CONSTRUCAO</t>
+          <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3286,21 +2736,21 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45601</v>
+        <v>45618</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>76,80</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FLAVIOSILVADOS</t>
+          <t>SHOPEE *LEDSLOJA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3311,21 +2761,21 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45602</v>
+        <v>45618</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23,90</t>
+          <t>76,80</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAGUE MENOS 175</t>
+          <t>SHOPEE *LEDSLOJA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3336,11 +2786,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45603</v>
+        <v>45618</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>26,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3350,7 +2800,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JOAO DAS MOTAS</t>
+          <t>ELIANA BIJUTERIAS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3361,11 +2811,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45605</v>
+        <v>45618</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>52,90</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3375,7 +2825,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CASA DO SAPATEIRO</t>
+          <t>MINA21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3386,11 +2836,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45605</v>
+        <v>45618</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>35,00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3400,7 +2850,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PANIFICADORA SAO PAULO</t>
+          <t>53679481 IAGO ALVES DOS S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3411,21 +2861,21 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45605</v>
+        <v>45620</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11,10</t>
+          <t>339,80</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SHEKINA HORTIFRUT</t>
+          <t>PARC=103 SHOPEE*SHOPEE LU</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3436,21 +2886,21 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45605</v>
+        <v>45620</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19,90</t>
+          <t>172,73</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DROGARIAS PLANETA</t>
+          <t>PARC=103 SHOPEE*SHOPEE LU</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3461,11 +2911,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45605</v>
+        <v>45620</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>46,76</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3475,7 +2925,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PANIFICADORA SAO PAULO</t>
+          <t>SHOPEE *CMGLASSINDUSTR</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3486,11 +2936,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45605</v>
+        <v>45621</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21,20</t>
+          <t>20,78</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3511,11 +2961,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45605</v>
+        <v>45622</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>40,00</t>
+          <t>26,00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3525,7 +2975,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COMERCIAL NUNES</t>
+          <t>JOAO DAS MOTOS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3536,21 +2986,21 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45606</v>
+        <v>45623</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>58,20</t>
+          <t>34,50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 de 3</t>
+          <t>1 de 2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TLT MATERIAIS</t>
+          <t>DIEGO N GUEDES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3561,11 +3011,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45608</v>
+        <v>45623</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>33,00</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3575,7 +3025,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VIVO EASY</t>
+          <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3586,11 +3036,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45608</v>
+        <v>45623</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3600,10 +3050,610 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>MERCADINHO TROPIC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1,60</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SANTANAAZEVEDOCIA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-83,59</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SHOPEE *HAELETRONICOS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>85,12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1 de 2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SHOPEE *HAELETRONICOS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>90,20</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SHOPEE *ARIALTECH</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-67,94</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SHOPEE *HAELETRONICOS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>PANIFICADORA SAO PAULO</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>99,51</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DELEOESCOMERCIODE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MADEIREIRA CAM GRANDE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PANIFICADORA SAO PAULO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16,45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PANIFICADORA SAO PAULO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>73,34</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MADEIREIRA CAM GRANDE</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19,99</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SHOPEE *CASAREAL</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>81,51</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 de 2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SHOPEE *HAELETRONICOS</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NOTEBOOK BAHIA SSA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16,06</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PANIFICADORA SAO PAULO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>95,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BRAITRELOGIOS</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9,90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DROGARIAS PLANETA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MERCADINHO DA PRAIA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>WLPOSTO CAB</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>197,20</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1 de 3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MERCADOLIVRE*4PRODUTOS</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20,58</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PANIFICADORA SAO PAULO</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>255,46</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MERCADOLIVRE*4PRODUTOS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>60,80</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1 de 2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MADEIREIRA CRISTO REY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>44,71</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1 de 2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>JR</t>
         </is>
@@ -3620,7 +3670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3657,21 +3707,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45563</v>
+        <v>45566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>190,00</t>
+          <t>378,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 de 2</t>
+          <t>3 de 6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AGI*DISTRIB MODERNA</t>
+          <t>CFC TRES ESTRELAS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3682,21 +3732,21 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45566</v>
+        <v>45614</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>378,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2 de 6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CFC TRES ESTRELAS</t>
+          <t>ESTACAO CAB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3707,11 +3757,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45585</v>
+        <v>45619</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>33,50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3721,7 +3771,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MP*CAIPIRINHADOLEU</t>
+          <t>MERCADINHO DA PRAIA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3732,21 +3782,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45591</v>
+        <v>45620</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>99,75</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 de 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ZIG THE GLOB*ZIG*SORRIS</t>
+          <t>AMAZON MARKETPLACE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3757,11 +3807,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45592</v>
+        <v>45622</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3771,7 +3821,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R B ERHARDT</t>
+          <t>MP*JESUSVERDE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3782,11 +3832,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45593</v>
+        <v>45623</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3807,11 +3857,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45601</v>
+        <v>45624</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>8,90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3821,7 +3871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESTACAO ACESSO NORTE</t>
+          <t>MERCADINHO DA PRAIA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3832,11 +3882,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45601</v>
+        <v>45624</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8,50</t>
+          <t>33,00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3846,7 +3896,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MC DONALDS</t>
+          <t>VIVO EASY</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3857,11 +3907,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45601</v>
+        <v>45626</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>69,57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3871,10 +3921,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOCA ROXA</t>
+          <t>SHOPEE *VELEJIM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>B N</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ESTACAO CAB</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>B N</t>
         </is>
